--- a/notes.xlsx
+++ b/notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="2089">
   <si>
     <t>1.if [ "${}" == "" ] 中括号前后需要空格 == 号左右需要空格 加引号 if和中括号之间也要有空格 then前面要有分号</t>
   </si>
@@ -4481,6 +4481,42 @@
     <t>销售洗脑，低风险创业，销售就是玩转情商，顾客为什么购买</t>
   </si>
   <si>
+    <t>xjy027</t>
+  </si>
+  <si>
+    <t>集合是唯一的</t>
+  </si>
+  <si>
+    <t>集合和字典都是无序的</t>
+  </si>
+  <si>
+    <t>frozenset</t>
+  </si>
+  <si>
+    <t>xjy028</t>
+  </si>
+  <si>
+    <t>xjy029</t>
+  </si>
+  <si>
+    <t>awk:</t>
+  </si>
+  <si>
+    <t>代码重复就用函数</t>
+  </si>
+  <si>
+    <t>xjy030</t>
+  </si>
+  <si>
+    <t>import random</t>
+  </si>
+  <si>
+    <t>secret=random.randint(1,19)</t>
+  </si>
+  <si>
+    <t>import  os</t>
+  </si>
+  <si>
     <t>加盐加密是一种对系统登录口令的加密方式，它实现的方式是将每一个口令同一个叫做”盐“（salt）的n位随机数相关联。无论何时只要口令改变，随机数就改变。随机数以未加密的方式存放在口令文件中，这样每个人都可以读。不再只保存加密过的口令，而是先将口令和随机数连接起来然后一同加密，加密后的结果放在口令文件中。</t>
   </si>
   <si>
@@ -5400,6 +5436,9 @@
   </si>
   <si>
     <t>8.git pull origin master   拉取更新</t>
+  </si>
+  <si>
+    <t>9.git rm -r a  git commit  git push -u origin master</t>
   </si>
   <si>
     <t>git checkout -b dev create branch dev</t>
@@ -6337,10 +6376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -6422,7 +6461,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6436,15 +6520,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6459,101 +6590,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6584,31 +6623,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6620,31 +6659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6656,7 +6671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6668,43 +6683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6722,7 +6701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6734,7 +6719,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6746,13 +6755,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6771,45 +6810,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6849,6 +6849,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6863,129 +6878,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6994,20 +7033,20 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7634,6 +7673,342 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>601</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="142360650"/>
+          <a:ext cx="3810000" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>610</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="143789400"/>
+          <a:ext cx="5086350" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>611</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>629</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="145694400"/>
+          <a:ext cx="7915275" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="150218775"/>
+          <a:ext cx="5038725" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>647</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616585</xdr:colOff>
+      <xdr:row>649</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270" y="154285950"/>
+          <a:ext cx="7505700" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>656</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>676</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="156410025"/>
+          <a:ext cx="7315200" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>676</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>685</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="161172525"/>
+          <a:ext cx="7400925" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>685</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>710</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="163315650"/>
+          <a:ext cx="7191375" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10903,47 +11278,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>2024</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>2025</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>2026</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>2027</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>2028</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>2029</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>2030</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>2031</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>2032</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -10954,37 +11329,37 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>2033</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>2034</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>2035</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>2036</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>2037</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>2038</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>2039</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -10995,12 +11370,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>2040</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>2041</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11028,52 +11403,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>2042</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2043</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2044</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2045</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2046</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>2047</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>2048</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2049</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>2050</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>2051</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -11081,12 +11456,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>2052</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>2053</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -11094,7 +11469,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>2054</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11102,7 +11477,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>2055</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11110,7 +11485,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>2056</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11118,7 +11493,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>2057</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11126,7 +11501,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>2058</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11134,7 +11509,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>2059</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11142,12 +11517,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>2060</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>2061</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -11155,72 +11530,72 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>2062</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>2063</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>2064</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>2065</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>2066</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>2067</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>2068</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>2069</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>2070</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>2071</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>2072</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>2073</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>2074</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>2075</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
@@ -13947,10 +14322,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F593"/>
+  <dimension ref="A1:F656"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="A593" sqref="A593"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="L690" sqref="L690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -15972,6 +16347,66 @@
     <row r="593" ht="21" spans="1:1">
       <c r="A593" s="16" t="s">
         <v>1484</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="6" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="6" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="6" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="6" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="6" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="6" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="6" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="6" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="6" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="6" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="6" t="s">
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -15999,22 +16434,22 @@
   <sheetData>
     <row r="1" ht="37.5" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -16041,147 +16476,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="10" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
-        <v>1501</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
-        <v>1503</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
-        <v>1505</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>1507</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>1508</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>1509</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>1510</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>1511</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>1512</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>1515</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>1516</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -16191,22 +16626,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>1517</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>1518</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>1519</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1520</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16216,1227 +16651,1227 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>1521</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>1531</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>1532</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>1533</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="10" t="s">
-        <v>1534</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>1535</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="10" t="s">
-        <v>1536</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="10" t="s">
-        <v>1538</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="10" t="s">
-        <v>1539</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>1541</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="10" t="s">
-        <v>1542</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="10" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="10" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="10" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="10" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="10" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="10" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="10" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="10" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="10" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="10" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="10" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="10" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="10" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="10" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="10" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="10" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="10" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="10" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="10" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="10" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="10" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="10" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="10" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="10" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="10" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="10" t="s">
-        <v>1575</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="10" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="10" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="10" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="10" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="10" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="103" ht="52.5" spans="1:1">
       <c r="A103" s="10" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="104" ht="52.5" spans="1:1">
       <c r="A104" s="10" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="105" ht="52.5" spans="1:1">
       <c r="A105" s="10" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="106" ht="52.5" spans="1:1">
       <c r="A106" s="10" t="s">
-        <v>1584</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="107" ht="52.5" spans="1:1">
       <c r="A107" s="10" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="10" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="10" t="s">
-        <v>1587</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="10" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="10" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="112" ht="52.5" spans="1:1">
       <c r="A112" s="10" t="s">
-        <v>1590</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="10" t="s">
-        <v>1591</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="10" t="s">
-        <v>1592</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="10" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="10" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="10" t="s">
-        <v>1595</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="10" t="s">
-        <v>1596</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="10" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="10" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="10" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="10" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="10" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="10" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="10" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="10" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="10" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="10" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="10" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="10" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="10" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="10" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="10" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="10" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="10" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="10" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="10" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="10" t="s">
-        <v>1616</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="10" t="s">
-        <v>1617</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="10" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="10" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="10" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="10" t="s">
-        <v>1619</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="10" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="10" t="s">
-        <v>1621</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="10" t="s">
-        <v>1622</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="10" t="s">
-        <v>1625</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="10" t="s">
-        <v>1626</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="10" t="s">
-        <v>1627</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="10" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="10" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="10" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="10" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="10" t="s">
-        <v>1628</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="10" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="10" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="10" t="s">
-        <v>1630</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="10" t="s">
-        <v>1631</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="10" t="s">
-        <v>1632</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="10" t="s">
-        <v>1633</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="10" t="s">
-        <v>1634</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="10" t="s">
-        <v>1635</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="10" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="10" t="s">
-        <v>1636</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="10" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="10" t="s">
-        <v>1637</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="10" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="10" t="s">
-        <v>1638</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="10" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="10" t="s">
-        <v>1639</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="10" t="s">
-        <v>1640</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="10" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="10" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="10" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="10" t="s">
-        <v>1641</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="10" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="10" t="s">
-        <v>1642</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="10" t="s">
-        <v>1643</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="10" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="10" t="s">
-        <v>1644</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="10" t="s">
-        <v>1645</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="10" t="s">
-        <v>1646</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="10" t="s">
-        <v>1647</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="10" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="10" t="s">
-        <v>1648</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="10" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="10" t="s">
-        <v>1649</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="10" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="10" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="10" t="s">
-        <v>1650</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="10" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="10" t="s">
-        <v>1651</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="10" t="s">
-        <v>1652</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="10" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="10" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="10" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="10" t="s">
-        <v>1653</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="10" t="s">
-        <v>1654</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="10" t="s">
-        <v>1655</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="10" t="s">
-        <v>1656</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>1657</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="10" t="s">
-        <v>1658</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="10" t="s">
-        <v>1659</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="10" t="s">
-        <v>1660</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="10" t="s">
-        <v>1661</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="10" t="s">
-        <v>1662</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="10" t="s">
-        <v>1663</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>1664</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="10" t="s">
-        <v>1665</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="10" t="s">
-        <v>1666</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="10" t="s">
-        <v>1667</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="10" t="s">
-        <v>1668</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="10" t="s">
-        <v>1669</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="10" t="s">
-        <v>1670</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="10" t="s">
-        <v>1671</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="10" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="10" t="s">
-        <v>1673</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="10" t="s">
-        <v>1674</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>1676</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>1677</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>1678</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>1679</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>1680</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="10" t="s">
-        <v>1681</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="10" t="s">
-        <v>1682</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>1683</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="10" t="s">
-        <v>1684</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="10" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="10" t="s">
-        <v>1686</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="10" t="s">
-        <v>1687</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="10" t="s">
-        <v>1688</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="10" t="s">
-        <v>1689</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="10" t="s">
-        <v>1690</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="10" t="s">
-        <v>1691</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="10" t="s">
-        <v>1692</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="10" t="s">
-        <v>1693</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="10" t="s">
-        <v>1694</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="10" t="s">
-        <v>1695</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="10" t="s">
-        <v>1696</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="10" t="s">
-        <v>1697</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="10" t="s">
-        <v>1698</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="10" t="s">
-        <v>1699</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="10" t="s">
-        <v>1700</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="253" ht="52.5" spans="1:1">
       <c r="A253" s="10" t="s">
-        <v>1701</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="10" t="s">
-        <v>1702</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="10" t="s">
-        <v>1703</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="10" t="s">
-        <v>1704</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="10" t="s">
-        <v>1705</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="10" t="s">
-        <v>1706</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="10" t="s">
-        <v>1707</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="260" ht="52.5" spans="1:1">
       <c r="A260" s="10" t="s">
-        <v>1708</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="10" t="s">
-        <v>1709</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="262" ht="52.5" spans="1:1">
       <c r="A262" s="10" t="s">
-        <v>1710</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="10" t="s">
-        <v>1711</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="264" ht="52.5" spans="1:1">
       <c r="A264" s="10" t="s">
-        <v>1712</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="10" t="s">
-        <v>1713</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>1714</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>1715</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>1716</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>1717</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>1718</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>1719</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>1720</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>1721</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>1722</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="10" t="s">
-        <v>1723</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="10" t="s">
-        <v>1724</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="10" t="s">
-        <v>1725</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="10" t="s">
-        <v>1726</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="10" t="s">
-        <v>1727</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="10" t="s">
-        <v>1728</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="10" t="s">
-        <v>1729</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="10" t="s">
-        <v>1730</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="283" ht="78.75" spans="1:1">
       <c r="A283" s="10" t="s">
-        <v>1731</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="10" t="s">
-        <v>1732</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="10" t="s">
-        <v>1733</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="286" ht="52.5" spans="1:1">
       <c r="A286" s="10" t="s">
-        <v>1734</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="10" t="s">
-        <v>1735</v>
+        <v>1747</v>
       </c>
     </row>
   </sheetData>
@@ -17462,147 +17897,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1501</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1503</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1505</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1507</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1508</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1509</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1510</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1511</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1512</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1515</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1516</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -17612,22 +18047,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1517</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1518</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1519</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1520</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -17637,982 +18072,982 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1521</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1531</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1532</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1533</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1534</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1535</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1536</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1538</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1539</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>1541</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1542</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1575</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>1584</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="6" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="6" t="s">
-        <v>1587</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="6" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="6" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="6" t="s">
-        <v>1736</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="6" t="s">
-        <v>1591</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>1592</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="6" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="6" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="6" t="s">
-        <v>1595</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="6" t="s">
-        <v>1596</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="6" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="6" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="6" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="6" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="6" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="6" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="6" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="6" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="6" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="6" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="6" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="6" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="6" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="6" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="6" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="6" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="6" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="6" t="s">
-        <v>1616</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="6" t="s">
-        <v>1617</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="6" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="6" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="6" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="6" t="s">
-        <v>1619</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="6" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="6" t="s">
-        <v>1621</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>1622</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="6" t="s">
-        <v>1625</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="6" t="s">
-        <v>1626</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="6" t="s">
-        <v>1627</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="6" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="6" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="6" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="6" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="6" t="s">
-        <v>1628</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="6" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="6" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>1630</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="6" t="s">
-        <v>1631</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="6" t="s">
-        <v>1632</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="6" t="s">
-        <v>1633</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="6" t="s">
-        <v>1634</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="6" t="s">
-        <v>1635</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="6" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="6" t="s">
-        <v>1636</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="6" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="6" t="s">
-        <v>1637</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="6" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="6" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="6" t="s">
-        <v>1638</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="6" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="6" t="s">
-        <v>1639</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="6" t="s">
-        <v>1640</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="6" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="6" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="6" t="s">
-        <v>1641</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="6" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="6" t="s">
-        <v>1642</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="6" t="s">
-        <v>1643</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="6" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>1644</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="6" t="s">
-        <v>1645</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="6" t="s">
-        <v>1646</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="6" t="s">
-        <v>1647</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="6" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="6" t="s">
-        <v>1648</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="6" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="6" t="s">
-        <v>1649</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="6" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="6" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="6" t="s">
-        <v>1650</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="6" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="6" t="s">
-        <v>1651</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="6" t="s">
-        <v>1652</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="6" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="6" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="6" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="6" t="s">
-        <v>1653</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="6" t="s">
-        <v>1654</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="6" t="s">
-        <v>1655</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="6" t="s">
-        <v>1656</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="6" t="s">
-        <v>1657</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="6" t="s">
-        <v>1658</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="6" t="s">
-        <v>1659</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="6" t="s">
-        <v>1660</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="6" t="s">
-        <v>1661</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="6" t="s">
-        <v>1662</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>1663</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="6" t="s">
-        <v>1664</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="6" t="s">
-        <v>1665</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="6" t="s">
-        <v>1666</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="6" t="s">
-        <v>1737</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="6" t="s">
-        <v>1738</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="6" t="s">
-        <v>1739</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="9" t="s">
-        <v>1740</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="6" t="s">
-        <v>1741</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="6" t="s">
-        <v>1742</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="6" t="s">
-        <v>1743</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="6" t="s">
-        <v>1744</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="6" t="s">
-        <v>1745</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="6" t="s">
-        <v>1746</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="6" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="6" t="s">
-        <v>1748</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="6" t="s">
-        <v>1749</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="6" t="s">
-        <v>1750</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="6" t="s">
-        <v>1751</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="6" t="s">
-        <v>1752</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="6" t="s">
-        <v>1753</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="6" t="s">
-        <v>1754</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="6" t="s">
-        <v>1755</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="6" t="s">
-        <v>1756</v>
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -18624,10 +19059,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -18637,515 +19072,520 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1758</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1759</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1760</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1761</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1762</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1763</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1764</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>1765</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1766</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>1767</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>1768</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>1769</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1770</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1771</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1772</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1773</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1774</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>1775</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>1776</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1777</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1778</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1779</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1780</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1781</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>1782</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>1783</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>1784</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>1785</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>1786</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>1789</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>1790</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>1791</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1799</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="7" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="s">
-        <v>1805</v>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>1806</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>1810</v>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="7" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
         <v>1812</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7" t="s">
-        <v>1815</v>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="7" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>1818</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="s">
-        <v>1819</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="s">
-        <v>1821</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="s">
-        <v>1822</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>1823</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="s">
-        <v>1824</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>1825</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="s">
-        <v>1827</v>
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="7" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="7" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="7" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="7" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="7" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="7" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="7" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="7" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="7" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="7" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="7" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="7" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
         <v>1840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="7" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="7" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="7" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="7" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="7" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="7" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="7" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="7" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="7" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="7" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="7" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="7" t="s">
-        <v>1837</v>
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="7" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="7" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="7" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="7" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="7" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="7" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="7" t="s">
-        <v>1847</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="7" t="s">
-        <v>1848</v>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="7" t="s">
+        <v>1860</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="7" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="7" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="7" t="s">
-        <v>1850</v>
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="7" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="7" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="7" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="7" t="s">
-        <v>1853</v>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="7" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="7" t="s">
-        <v>1854</v>
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="7" t="s">
+        <v>1867</v>
       </c>
     </row>
   </sheetData>
@@ -19171,362 +19611,362 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1856</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1857</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1858</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1860</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1862</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1863</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1864</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1865</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1866</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1867</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1868</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1869</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1870</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1871</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1872</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1873</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1874</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1875</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1876</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1877</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1878</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1879</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1880</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1881</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1882</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1883</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1884</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1885</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1886</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1887</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1888</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1889</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1890</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1891</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1892</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1893</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1894</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1895</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1896</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1897</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1898</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1899</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1900</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1901</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1902</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1903</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1904</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1905</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1906</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1907</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1908</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1909</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1910</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1911</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1912</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1913</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1914</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1915</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1916</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1917</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1918</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1919</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1920</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1921</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1922</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1923</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1924</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1925</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -19536,97 +19976,97 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1927</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1928</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1929</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1930</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>1931</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>1932</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>1933</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1934</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1935</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1936</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1937</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1938</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1939</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1940</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1941</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1942</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1943</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1944</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1945</v>
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -19651,392 +20091,392 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1946</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1947</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1948</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1949</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1950</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1951</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1952</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1953</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1954</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1955</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1956</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1957</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1958</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1959</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1960</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1962</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1963</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1964</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1965</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1966</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1967</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1968</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1970</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1971</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1972</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1973</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1974</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1975</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1976</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1977</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1978</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1979</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1980</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1981</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1982</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1983</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1984</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1985</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1986</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1987</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1988</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1989</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1990</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1991</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1992</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1993</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>1994</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1995</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1996</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1997</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1998</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1999</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>2000</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>2002</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>2003</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>2004</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>2005</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>2006</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>2007</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>2009</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>2010</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>2011</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>2012</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>2013</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>2014</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>2015</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>2016</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>2017</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>2019</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>2020</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>2021</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>2022</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>2023</v>
+        <v>2036</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="2095">
   <si>
     <t>1.if [ "${}" == "" ] 中括号前后需要空格 == 号左右需要空格 加引号 if和中括号之间也要有空格 then前面要有分号</t>
   </si>
@@ -4515,6 +4515,24 @@
   </si>
   <si>
     <t>import  os</t>
+  </si>
+  <si>
+    <t>xjy031</t>
+  </si>
+  <si>
+    <t>pickle泡菜</t>
+  </si>
+  <si>
+    <t>import pickle</t>
+  </si>
+  <si>
+    <t>xjy032异常处理</t>
+  </si>
+  <si>
+    <t>xjy033</t>
+  </si>
+  <si>
+    <t>try</t>
   </si>
   <si>
     <t>加盐加密是一种对系统登录口令的加密方式，它实现的方式是将每一个口令同一个叫做”盐“（salt）的n位随机数相关联。无论何时只要口令改变，随机数就改变。随机数以未加密的方式存放在口令文件中，这样每个人都可以读。不再只保存加密过的口令，而是先将口令和随机数连接起来然后一同加密，加密后的结果放在口令文件中。</t>
@@ -6376,9 +6394,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -6474,18 +6492,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6496,19 +6514,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6520,11 +6529,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6533,6 +6542,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6551,8 +6568,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6566,16 +6599,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6584,13 +6609,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6635,25 +6653,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6671,7 +6707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6683,37 +6743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6725,61 +6761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6792,6 +6774,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6823,13 +6841,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6864,26 +6886,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6902,126 +6911,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7033,16 +7051,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8009,6 +8027,132 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>742</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="170697525"/>
+          <a:ext cx="6038850" cy="6410325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>762</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="177841275"/>
+          <a:ext cx="6343650" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>762</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="181651275"/>
+          <a:ext cx="7820025" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11278,47 +11422,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>2039</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>2041</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>2042</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -11329,37 +11473,37 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>2049</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>2050</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>2051</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>2052</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11370,12 +11514,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>2053</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>2054</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11403,52 +11547,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>2055</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2056</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2057</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2058</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2059</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>2060</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>2061</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>2063</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>2064</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -11456,12 +11600,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>2066</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -11469,7 +11613,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11477,7 +11621,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>2068</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11485,7 +11629,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>2069</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11493,7 +11637,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11501,7 +11645,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>2071</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11509,7 +11653,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>2072</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11517,12 +11661,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>2073</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>2074</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -11530,72 +11674,72 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>2075</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>2076</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>2077</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>2078</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>2080</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>2081</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>2082</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>2083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>2084</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>2086</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>2087</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
     </row>
   </sheetData>
@@ -14322,10 +14466,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F656"/>
+  <dimension ref="A1:F780"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="L690" sqref="L690"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B232" sqref="B1:B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -16407,6 +16551,41 @@
     <row r="656" spans="1:1">
       <c r="A656" s="6" t="s">
         <v>1496</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="6" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="6" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="6" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="6" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="6" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -16434,22 +16613,22 @@
   <sheetData>
     <row r="1" ht="37.5" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -16476,147 +16655,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="10" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -16626,22 +16805,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16651,1227 +16830,1227 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="10" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="10" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="10" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="10" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="10" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="10" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="10" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="10" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="10" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="10" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="10" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="10" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="10" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="10" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="10" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="10" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="10" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="10" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="10" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="10" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="10" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="10" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="10" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="10" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="10" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="10" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="10" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="10" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="10" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="10" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="10" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="10" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="10" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="10" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="10" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="10" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="103" ht="52.5" spans="1:1">
       <c r="A103" s="10" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="104" ht="52.5" spans="1:1">
       <c r="A104" s="10" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="105" ht="52.5" spans="1:1">
       <c r="A105" s="10" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="106" ht="52.5" spans="1:1">
       <c r="A106" s="10" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="107" ht="52.5" spans="1:1">
       <c r="A107" s="10" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="10" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="10" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="10" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="10" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="112" ht="52.5" spans="1:1">
       <c r="A112" s="10" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="10" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="10" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="10" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="10" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="10" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="10" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="10" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="10" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="10" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="10" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="10" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="10" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="10" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="10" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="10" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="10" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="10" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="10" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="10" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="10" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="10" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="10" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="10" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="10" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="10" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="10" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="10" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="10" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="10" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="10" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="10" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="10" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="10" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="10" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="10" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="10" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="10" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="10" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="10" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="10" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="10" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="10" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="10" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="10" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="10" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="10" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="10" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="10" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="10" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="10" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="10" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="10" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="10" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="10" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="10" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="10" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="10" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="10" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="10" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="10" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="10" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="10" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="10" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="10" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="10" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="10" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="10" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="10" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="10" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="10" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="10" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="10" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="10" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="10" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="10" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="10" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="10" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="10" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="10" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="10" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="10" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="10" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="10" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="10" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="10" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="10" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="10" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="10" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="10" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="10" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="10" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="10" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="10" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="10" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="10" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="10" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="10" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="10" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="10" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="10" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="10" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="10" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="10" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="10" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="10" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="10" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="10" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="10" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="10" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="10" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="10" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="10" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="10" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="10" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="10" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="10" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="10" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="10" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="10" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="10" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="10" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="10" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="10" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="253" ht="52.5" spans="1:1">
       <c r="A253" s="10" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="10" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="10" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="10" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="10" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="10" t="s">
-        <v>1718</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="10" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="260" ht="52.5" spans="1:1">
       <c r="A260" s="10" t="s">
-        <v>1720</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="10" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="262" ht="52.5" spans="1:1">
       <c r="A262" s="10" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="10" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="264" ht="52.5" spans="1:1">
       <c r="A264" s="10" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="10" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>1728</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>1730</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>1731</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>1732</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>1734</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="10" t="s">
-        <v>1735</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="10" t="s">
-        <v>1736</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="10" t="s">
-        <v>1737</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="10" t="s">
-        <v>1738</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="10" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="10" t="s">
-        <v>1740</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="10" t="s">
-        <v>1741</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="10" t="s">
-        <v>1742</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="283" ht="78.75" spans="1:1">
       <c r="A283" s="10" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="10" t="s">
-        <v>1744</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="10" t="s">
-        <v>1745</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="286" ht="52.5" spans="1:1">
       <c r="A286" s="10" t="s">
-        <v>1746</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="10" t="s">
-        <v>1747</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>
@@ -17897,147 +18076,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -18047,22 +18226,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -18072,982 +18251,982 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="6" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="6" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="6" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="6" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="6" t="s">
-        <v>1748</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="6" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="6" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="6" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="6" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="6" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="6" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="6" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="6" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="6" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="6" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="6" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="6" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="6" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="6" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="6" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="6" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="6" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="6" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="6" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="6" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="6" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="6" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="6" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="6" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="6" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="6" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="6" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="6" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="6" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="6" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="6" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="6" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="6" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="6" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="6" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="6" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="6" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="6" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="6" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="6" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="6" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="6" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="6" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="6" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="6" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="6" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="6" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="6" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="6" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="6" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="6" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="6" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="6" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="6" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="6" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="6" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="6" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="6" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="6" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="6" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="6" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="6" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="6" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="6" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="6" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="6" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="6" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="6" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="6" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="6" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="6" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="6" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="6" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="6" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="6" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="6" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="6" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="6" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="6" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="6" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="6" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="6" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="6" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="6" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="6" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="6" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="6" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="6" t="s">
-        <v>1749</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="6" t="s">
-        <v>1750</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="6" t="s">
-        <v>1751</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="9" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="6" t="s">
-        <v>1753</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="6" t="s">
-        <v>1754</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="6" t="s">
-        <v>1755</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="6" t="s">
-        <v>1756</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="6" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="6" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="6" t="s">
-        <v>1759</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="6" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="6" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="6" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="6" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="6" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="6" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="6" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="6" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="6" t="s">
-        <v>1768</v>
+        <v>1774</v>
       </c>
     </row>
   </sheetData>
@@ -19072,520 +19251,520 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1772</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1773</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1774</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1775</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1776</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>1777</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>1780</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>1781</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1782</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1786</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>1788</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1790</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1791</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1793</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>1794</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>1795</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>1797</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>1798</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1800</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>1801</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>1802</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>1803</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1804</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>1806</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>1809</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>1810</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1811</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="7" t="s">
-        <v>1812</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="s">
-        <v>1813</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="s">
-        <v>1814</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="s">
-        <v>1815</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>1816</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>1817</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>1818</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>1819</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>1820</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>1821</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>1822</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>1823</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>1812</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>1824</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>1825</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>1826</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>1828</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="s">
-        <v>1829</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="s">
-        <v>1830</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="s">
-        <v>1832</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="s">
-        <v>1834</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>1836</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="s">
-        <v>1837</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="s">
-        <v>1838</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="s">
-        <v>1839</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="s">
-        <v>1840</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="s">
-        <v>1842</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="7" t="s">
-        <v>1843</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="7" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="7" t="s">
-        <v>1845</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="7" t="s">
-        <v>1846</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="7" t="s">
-        <v>1847</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="7" t="s">
-        <v>1848</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="7" t="s">
-        <v>1849</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="7" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="7" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="7" t="s">
-        <v>1852</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="7" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="7" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="7" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="7" t="s">
-        <v>1855</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="7" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="7" t="s">
-        <v>1857</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="7" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="7" t="s">
-        <v>1858</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="7" t="s">
-        <v>1859</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="7" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="7" t="s">
-        <v>1861</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="7" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="7" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="7" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="7" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="7" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="7" t="s">
-        <v>1866</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
@@ -19611,362 +19790,362 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1868</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1870</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1872</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1873</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1874</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1875</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1876</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1877</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1878</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1879</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1880</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1881</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1882</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1884</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1885</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1886</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1887</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1888</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1891</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1892</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1897</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1898</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1899</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1901</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1906</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1907</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1908</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1909</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1911</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1913</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1914</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1915</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1916</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1917</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1918</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1919</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1920</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1921</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1922</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1923</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1925</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1926</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1927</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1928</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1929</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1930</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1931</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1932</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1933</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1934</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1935</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1936</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1937</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1938</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1939</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -19976,97 +20155,97 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1940</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1941</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1942</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1943</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>1944</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>1945</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>1946</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1948</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1949</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1950</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1951</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1952</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1953</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1954</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1955</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1956</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1957</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1958</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -20091,392 +20270,392 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1959</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1960</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1961</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1962</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1963</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1964</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1965</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1966</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1967</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1968</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1969</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1970</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1971</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1972</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1975</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1976</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1977</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1978</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1979</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1980</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1981</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1983</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1984</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1985</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1986</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1987</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1988</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1990</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1991</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1992</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1993</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1994</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1997</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1998</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1999</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>2000</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>2003</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>2006</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>2008</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>2009</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>2019</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>2020</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>2023</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>2024</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>2026</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>2027</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>2028</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>2030</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>2031</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>2033</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>2034</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="2098">
   <si>
     <t>1.if [ "${}" == "" ] 中括号前后需要空格 == 号左右需要空格 加引号 if和中括号之间也要有空格 then前面要有分号</t>
   </si>
@@ -4533,6 +4533,15 @@
   </si>
   <si>
     <t>try</t>
+  </si>
+  <si>
+    <t>xjy034</t>
+  </si>
+  <si>
+    <t>与while一起使用，当for循环没有break执行完之后，去执行else里的语句</t>
+  </si>
+  <si>
+    <t>与try一起使用</t>
   </si>
   <si>
     <t>加盐加密是一种对系统登录口令的加密方式，它实现的方式是将每一个口令同一个叫做”盐“（salt）的n位随机数相关联。无论何时只要口令改变，随机数就改变。随机数以未加密的方式存放在口令文件中，这样每个人都可以读。不再只保存加密过的口令，而是先将口令和随机数连接起来然后一同加密，加密后的结果放在口令文件中。</t>
@@ -6394,10 +6403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -6488,20 +6497,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6515,7 +6524,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6538,37 +6578,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -6578,14 +6587,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6599,16 +6608,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6647,7 +6656,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6659,25 +6752,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6689,13 +6800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6707,109 +6812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6828,6 +6837,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6856,6 +6895,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6871,21 +6919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6896,150 +6929,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7051,19 +7060,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -8153,6 +8162,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>781</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>790</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="186175650"/>
+          <a:ext cx="5172075" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11422,47 +11473,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -11473,37 +11524,37 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11514,12 +11565,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11547,52 +11598,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -11600,12 +11651,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -11613,7 +11664,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11621,7 +11672,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11629,7 +11680,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11637,7 +11688,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11645,7 +11696,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11653,7 +11704,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11661,12 +11712,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -11674,72 +11725,72 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
     </row>
   </sheetData>
@@ -14466,10 +14517,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F780"/>
+  <dimension ref="A1:F793"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B232" sqref="B1:B232"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A776" workbookViewId="0">
+      <selection activeCell="A794" sqref="A794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -16586,6 +16637,21 @@
     <row r="780" spans="1:1">
       <c r="A780" s="6" t="s">
         <v>1410</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="6" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="6" t="s">
+        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -16613,22 +16679,22 @@
   <sheetData>
     <row r="1" ht="37.5" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -16655,147 +16721,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="10" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -16805,22 +16871,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16830,1227 +16896,1227 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="10" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="10" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="10" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="10" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="10" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="10" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="10" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="10" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="10" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="10" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="10" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="10" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="10" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="10" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="10" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="10" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="10" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="10" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="10" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="10" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="10" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="10" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="10" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="10" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="10" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="10" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="10" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="10" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="10" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="10" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="10" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="10" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="10" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="10" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="10" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="10" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="103" ht="52.5" spans="1:1">
       <c r="A103" s="10" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="104" ht="52.5" spans="1:1">
       <c r="A104" s="10" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="105" ht="52.5" spans="1:1">
       <c r="A105" s="10" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="106" ht="52.5" spans="1:1">
       <c r="A106" s="10" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="107" ht="52.5" spans="1:1">
       <c r="A107" s="10" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="10" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="10" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="10" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="10" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="112" ht="52.5" spans="1:1">
       <c r="A112" s="10" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="10" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="10" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="10" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="10" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="10" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="10" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="10" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="10" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="10" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="10" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="10" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="10" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="10" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="10" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="10" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="10" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="10" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="10" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="10" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="10" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="10" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="10" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="10" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="10" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="10" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="10" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="10" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="10" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="10" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="10" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="10" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="10" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="10" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="10" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="10" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="10" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="10" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="10" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="10" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="10" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="10" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="10" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="10" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="10" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="10" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="10" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="10" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="10" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="10" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="10" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="10" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="10" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="10" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="10" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="10" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="10" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="10" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="10" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="10" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="10" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="10" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="10" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="10" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="10" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="10" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="10" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="10" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="10" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="10" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="10" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="10" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="10" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="10" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="10" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="10" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="10" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="10" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="10" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="10" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="10" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="10" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="10" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="10" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="10" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="10" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="10" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="10" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="10" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="10" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="10" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="10" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="10" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="10" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="10" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="10" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="10" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="10" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="10" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="10" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="10" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="10" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="10" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="10" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="10" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="10" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="10" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="10" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="10" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="10" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="10" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="10" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="10" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="10" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="10" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="10" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="10" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="10" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="10" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="10" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="10" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="10" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="10" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="10" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="253" ht="52.5" spans="1:1">
       <c r="A253" s="10" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="10" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="10" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="10" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="10" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="10" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="10" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="260" ht="52.5" spans="1:1">
       <c r="A260" s="10" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="10" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="262" ht="52.5" spans="1:1">
       <c r="A262" s="10" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="10" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="264" ht="52.5" spans="1:1">
       <c r="A264" s="10" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="10" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="10" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="10" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="10" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="10" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="10" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="10" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="10" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="10" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="283" ht="78.75" spans="1:1">
       <c r="A283" s="10" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="10" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="10" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="286" ht="52.5" spans="1:1">
       <c r="A286" s="10" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="10" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -18076,147 +18142,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -18226,22 +18292,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -18251,982 +18317,982 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="6" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="6" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="6" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="6" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="6" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="6" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="6" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="6" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="6" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="6" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="6" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="6" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="6" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="6" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="6" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="6" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="6" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="6" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="6" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="6" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="6" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="6" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="6" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="6" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="6" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="6" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="6" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="6" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="6" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="6" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="6" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="6" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="6" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="6" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="6" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="6" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="6" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="6" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="6" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="6" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="6" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="6" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="6" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="6" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="6" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="6" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="6" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="6" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="6" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="6" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="6" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="6" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="6" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="6" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="6" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="6" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="6" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="6" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="6" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="6" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="6" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="6" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="6" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="6" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="6" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="6" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="6" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="6" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="6" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="6" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="6" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="6" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="6" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="6" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="6" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="6" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="6" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="6" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="6" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="6" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="6" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="6" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="6" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="6" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="6" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="6" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="6" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="6" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="6" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="6" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="6" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="6" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="6" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="6" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="6" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="6" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="6" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="6" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="6" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="9" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="6" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="6" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="6" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="6" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="6" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="6" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="6" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="6" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="6" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="6" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="6" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="6" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="6" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="6" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="6" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="6" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
   </sheetData>
@@ -19251,520 +19317,520 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="7" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="7" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="7" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="7" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="7" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="7" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="7" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="7" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="7" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="7" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="7" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="7" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="7" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="7" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="7" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="7" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="7" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="7" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="7" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="7" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="7" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="7" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="7" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="7" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="7" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="7" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="7" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="7" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
@@ -19790,362 +19856,362 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -20155,97 +20221,97 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -20270,392 +20336,392 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="2111">
   <si>
     <t>1.if [ "${}" == "" ] 中括号前后需要空格 == 号左右需要空格 加引号 if和中括号之间也要有空格 then前面要有分号</t>
   </si>
@@ -4542,6 +4542,45 @@
   </si>
   <si>
     <t>与try一起使用</t>
+  </si>
+  <si>
+    <t>xjy035</t>
+  </si>
+  <si>
+    <t>（1）import easygui</t>
+  </si>
+  <si>
+    <t>easygui.msgbox('hello')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（2）from easygui  import *   </t>
+  </si>
+  <si>
+    <t>（3）import easygui as G 推荐用法</t>
+  </si>
+  <si>
+    <t>xjy036</t>
+  </si>
+  <si>
+    <t>对象=属性+方法</t>
+  </si>
+  <si>
+    <t>静态属性，动态方法（函数）</t>
+  </si>
+  <si>
+    <t>类对象如下</t>
+  </si>
+  <si>
+    <t>tt=Turtel() 实例对象</t>
+  </si>
+  <si>
+    <t>tt.bite（）调用方法</t>
+  </si>
+  <si>
+    <t>oo面向对象特征:</t>
+  </si>
+  <si>
+    <t>class Mylist(list) ： 继承list的类</t>
   </si>
   <si>
     <t>加盐加密是一种对系统登录口令的加密方式，它实现的方式是将每一个口令同一个叫做”盐“（salt）的n位随机数相关联。无论何时只要口令改变，随机数就改变。随机数以未加密的方式存放在口令文件中，这样每个人都可以读。不再只保存加密过的口令，而是先将口令和随机数连接起来然后一同加密，加密后的结果放在口令文件中。</t>
@@ -6403,10 +6442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -6501,16 +6540,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6523,15 +6563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6539,30 +6572,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6594,15 +6604,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6616,10 +6646,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6656,7 +6695,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6668,13 +6749,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6692,133 +6857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6842,6 +6881,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -6856,17 +6910,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6876,30 +6924,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6929,6 +6953,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6937,118 +6976,118 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7060,19 +7099,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -8204,6 +8243,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>803</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="191414400"/>
+          <a:ext cx="3305175" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11473,47 +11554,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>2046</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>2047</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>2048</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>2049</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>2050</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>2051</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>2052</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>2053</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>2054</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -11524,37 +11605,37 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>2055</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>2056</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>2057</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>2058</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>2059</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>2060</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>2061</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11565,12 +11646,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>2062</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>2063</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11598,52 +11679,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>2064</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>2065</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>2066</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2067</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>2068</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>2069</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>2070</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>2071</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>2072</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>2073</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -11651,12 +11732,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>2074</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>2075</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -11664,7 +11745,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>2076</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11672,7 +11753,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>2077</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11680,7 +11761,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>2078</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11688,7 +11769,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>2079</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11696,7 +11777,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>2080</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11704,7 +11785,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>2081</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11712,12 +11793,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>2082</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>2083</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -11725,72 +11806,72 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>2084</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>2085</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>2086</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>2087</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>2088</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>2089</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>2090</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>2091</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>2092</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>2093</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>2094</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>2095</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>2096</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>2097</v>
+        <v>2110</v>
       </c>
     </row>
   </sheetData>
@@ -14517,10 +14598,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F793"/>
+  <dimension ref="A1:F825"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A776" workbookViewId="0">
-      <selection activeCell="A794" sqref="A794"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A806" workbookViewId="0">
+      <selection activeCell="C828" sqref="C828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -16652,6 +16733,74 @@
     <row r="793" spans="1:1">
       <c r="A793" s="6" t="s">
         <v>1505</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="6" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="6" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="6" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D803" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="6" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="6" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="6" t="s">
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -16679,22 +16828,22 @@
   <sheetData>
     <row r="1" ht="37.5" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>1506</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>1507</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>1509</v>
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
@@ -16721,147 +16870,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>1510</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>1511</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>1513</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>1515</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>1517</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>1518</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="10" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
-        <v>1520</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
-        <v>1522</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
-        <v>1523</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
-        <v>1524</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10" t="s">
-        <v>1525</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
-        <v>1526</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>1527</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>1528</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>1529</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>1530</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>1531</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>1533</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>1534</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>1535</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>1536</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>1537</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -16871,22 +17020,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>1538</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>1539</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>1540</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>1541</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16896,1227 +17045,1227 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>1542</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>1543</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>1544</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>1545</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>1547</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>1548</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>1549</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>1550</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>1551</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>1552</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>1553</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="10" t="s">
-        <v>1555</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>1556</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="10" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>1558</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="10" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="10" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="10" t="s">
-        <v>1562</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="10" t="s">
-        <v>1563</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>1564</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="10" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>1566</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="10" t="s">
-        <v>1567</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="10" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="10" t="s">
-        <v>1569</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="10" t="s">
-        <v>1570</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="10" t="s">
-        <v>1571</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="10" t="s">
-        <v>1572</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="10" t="s">
-        <v>1573</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="10" t="s">
-        <v>1574</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>1575</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>1576</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="10" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>1577</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>1578</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="10" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="10" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="10" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="10" t="s">
-        <v>1570</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="10" t="s">
-        <v>1571</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="10" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="10" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="10" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>1587</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="10" t="s">
-        <v>1588</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="10" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="10" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="10" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="10" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="10" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="10" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="10" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="10" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="10" t="s">
-        <v>1597</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="10" t="s">
-        <v>1598</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="10" t="s">
-        <v>1599</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="10" t="s">
-        <v>1600</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="10" t="s">
-        <v>1601</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="103" ht="52.5" spans="1:1">
       <c r="A103" s="10" t="s">
-        <v>1602</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="104" ht="52.5" spans="1:1">
       <c r="A104" s="10" t="s">
-        <v>1603</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="105" ht="52.5" spans="1:1">
       <c r="A105" s="10" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="106" ht="52.5" spans="1:1">
       <c r="A106" s="10" t="s">
-        <v>1605</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="107" ht="52.5" spans="1:1">
       <c r="A107" s="10" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="10" t="s">
-        <v>1607</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="10" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="10" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="10" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="112" ht="52.5" spans="1:1">
       <c r="A112" s="10" t="s">
-        <v>1611</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="10" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="10" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="10" t="s">
-        <v>1614</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="10" t="s">
-        <v>1615</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="10" t="s">
-        <v>1616</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="10" t="s">
-        <v>1617</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="10" t="s">
-        <v>1618</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="10" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="10" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="10" t="s">
-        <v>1621</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="10" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="10" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="10" t="s">
-        <v>1624</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="10" t="s">
-        <v>1625</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="10" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="10" t="s">
-        <v>1627</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="10" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="10" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="10" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="10" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="10" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="10" t="s">
-        <v>1633</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="10" t="s">
-        <v>1634</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="10" t="s">
-        <v>1635</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="10" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="10" t="s">
-        <v>1637</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="10" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="10" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="10" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="10" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="10" t="s">
-        <v>1640</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="10" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="10" t="s">
-        <v>1642</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="10" t="s">
-        <v>1643</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="10" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>1645</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="10" t="s">
-        <v>1646</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="10" t="s">
-        <v>1647</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="10" t="s">
-        <v>1648</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="10" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="10" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="10" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="10" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="10" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="10" t="s">
-        <v>1650</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="10" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="10" t="s">
-        <v>1651</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="10" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="10" t="s">
-        <v>1653</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="10" t="s">
-        <v>1654</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="10" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="10" t="s">
-        <v>1656</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="10" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="10" t="s">
-        <v>1657</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="10" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="10" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="10" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="10" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="10" t="s">
-        <v>1659</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="10" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="10" t="s">
-        <v>1660</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="10" t="s">
-        <v>1661</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="10" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="10" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="10" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="10" t="s">
-        <v>1662</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="10" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="10" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="10" t="s">
-        <v>1664</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="10" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="10" t="s">
-        <v>1665</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="10" t="s">
-        <v>1666</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="10" t="s">
-        <v>1667</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="10" t="s">
-        <v>1668</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="10" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="10" t="s">
-        <v>1669</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="10" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="10" t="s">
-        <v>1670</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="10" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="10" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="10" t="s">
-        <v>1671</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="10" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="10" t="s">
-        <v>1672</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="10" t="s">
-        <v>1673</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="10" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="10" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="10" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="10" t="s">
-        <v>1674</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="10" t="s">
-        <v>1675</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="10" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="10" t="s">
-        <v>1677</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="10" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="10" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="10" t="s">
-        <v>1681</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="10" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="10" t="s">
-        <v>1683</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="10" t="s">
-        <v>1684</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="10" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="10" t="s">
-        <v>1687</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="10" t="s">
-        <v>1688</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="10" t="s">
-        <v>1689</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="10" t="s">
-        <v>1690</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="10" t="s">
-        <v>1691</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="10" t="s">
-        <v>1692</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="10" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="10" t="s">
-        <v>1694</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="10" t="s">
-        <v>1695</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>1696</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>1697</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>1698</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>1699</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>1700</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>1701</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="10" t="s">
-        <v>1702</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="10" t="s">
-        <v>1703</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>1704</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="10" t="s">
-        <v>1705</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="10" t="s">
-        <v>1706</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="10" t="s">
-        <v>1707</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="10" t="s">
-        <v>1708</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="10" t="s">
-        <v>1709</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="10" t="s">
-        <v>1710</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="10" t="s">
-        <v>1711</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="10" t="s">
-        <v>1712</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="10" t="s">
-        <v>1713</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="10" t="s">
-        <v>1714</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="10" t="s">
-        <v>1715</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="10" t="s">
-        <v>1716</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="10" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="10" t="s">
-        <v>1718</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="10" t="s">
-        <v>1719</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="10" t="s">
-        <v>1720</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="10" t="s">
-        <v>1721</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="253" ht="52.5" spans="1:1">
       <c r="A253" s="10" t="s">
-        <v>1722</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="10" t="s">
-        <v>1723</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="10" t="s">
-        <v>1724</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="10" t="s">
-        <v>1725</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="10" t="s">
-        <v>1726</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="10" t="s">
-        <v>1727</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="10" t="s">
-        <v>1728</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="260" ht="52.5" spans="1:1">
       <c r="A260" s="10" t="s">
-        <v>1729</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="10" t="s">
-        <v>1730</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="262" ht="52.5" spans="1:1">
       <c r="A262" s="10" t="s">
-        <v>1731</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="10" t="s">
-        <v>1732</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="264" ht="52.5" spans="1:1">
       <c r="A264" s="10" t="s">
-        <v>1733</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="10" t="s">
-        <v>1734</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>1735</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>1736</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>1737</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>1739</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>1740</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>1741</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>1742</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="10" t="s">
-        <v>1744</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="10" t="s">
-        <v>1745</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="10" t="s">
-        <v>1746</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="10" t="s">
-        <v>1747</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="10" t="s">
-        <v>1748</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="10" t="s">
-        <v>1749</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="10" t="s">
-        <v>1750</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="10" t="s">
-        <v>1751</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="283" ht="78.75" spans="1:1">
       <c r="A283" s="10" t="s">
-        <v>1752</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="10" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="10" t="s">
-        <v>1754</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="286" ht="52.5" spans="1:1">
       <c r="A286" s="10" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="10" t="s">
-        <v>1756</v>
+        <v>1769</v>
       </c>
     </row>
   </sheetData>
@@ -18142,147 +18291,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1510</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1511</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1513</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1515</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1517</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1518</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1520</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1522</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1523</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1524</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1525</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1526</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1527</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1528</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1529</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1530</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1531</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1533</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1534</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1535</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1536</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1537</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -18292,22 +18441,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1538</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1539</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1540</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1541</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -18317,982 +18466,982 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1542</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1543</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1544</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1545</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1547</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1548</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1549</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1550</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1551</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1552</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1553</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1555</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1556</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1558</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>1562</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1563</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1564</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1566</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>1567</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1569</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1570</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1571</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1572</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1573</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1574</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1575</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1576</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="s">
-        <v>1577</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1578</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1570</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>1571</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1587</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1588</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>1597</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1598</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1599</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1600</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>1601</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>1602</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>1603</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>1605</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="6" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>1607</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="6" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="6" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="6" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="6" t="s">
-        <v>1757</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="6" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="6" t="s">
-        <v>1614</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="6" t="s">
-        <v>1615</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="6" t="s">
-        <v>1616</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="6" t="s">
-        <v>1617</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="6" t="s">
-        <v>1618</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="6" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="6" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="6" t="s">
-        <v>1621</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="6" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="6" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="6" t="s">
-        <v>1624</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>1625</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="6" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="6" t="s">
-        <v>1627</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="6" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="6" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="6" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="6" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="6" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="6" t="s">
-        <v>1633</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="6" t="s">
-        <v>1634</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="6" t="s">
-        <v>1635</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="6" t="s">
-        <v>1637</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="6" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="6" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="6" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="6" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="6" t="s">
-        <v>1640</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="6" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="6" t="s">
-        <v>1642</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>1643</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>1645</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="6" t="s">
-        <v>1646</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="6" t="s">
-        <v>1647</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="6" t="s">
-        <v>1648</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="6" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="6" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="6" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="6" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="6" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="6" t="s">
-        <v>1650</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="6" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="6" t="s">
-        <v>1651</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="6" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="6" t="s">
-        <v>1653</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="6" t="s">
-        <v>1654</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="6" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="6" t="s">
-        <v>1656</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="6" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="6" t="s">
-        <v>1657</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="6" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="6" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="6" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="6" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="6" t="s">
-        <v>1659</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="6" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="6" t="s">
-        <v>1660</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="6" t="s">
-        <v>1661</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="6" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="6" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="6" t="s">
-        <v>1662</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="6" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="6" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="6" t="s">
-        <v>1664</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="6" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>1665</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="6" t="s">
-        <v>1666</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="6" t="s">
-        <v>1667</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="6" t="s">
-        <v>1668</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="6" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="6" t="s">
-        <v>1669</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="6" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="6" t="s">
-        <v>1670</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="6" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="6" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="6" t="s">
-        <v>1671</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="6" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="6" t="s">
-        <v>1672</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="6" t="s">
-        <v>1673</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="6" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="6" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="6" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="6" t="s">
-        <v>1674</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="6" t="s">
-        <v>1675</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="6" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="6" t="s">
-        <v>1677</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="6" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="6" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="6" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="6" t="s">
-        <v>1681</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="6" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="6" t="s">
-        <v>1683</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>1684</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="6" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="6" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="6" t="s">
-        <v>1687</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="6" t="s">
-        <v>1758</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="6" t="s">
-        <v>1759</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="6" t="s">
-        <v>1760</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="9" t="s">
-        <v>1761</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="6" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="6" t="s">
-        <v>1763</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="6" t="s">
-        <v>1764</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="6" t="s">
-        <v>1765</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="6" t="s">
-        <v>1766</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="6" t="s">
-        <v>1767</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="6" t="s">
-        <v>1768</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="6" t="s">
-        <v>1769</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="6" t="s">
-        <v>1770</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="6" t="s">
-        <v>1771</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="6" t="s">
-        <v>1772</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="6" t="s">
-        <v>1773</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="6" t="s">
-        <v>1774</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="6" t="s">
-        <v>1775</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="6" t="s">
-        <v>1776</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="6" t="s">
-        <v>1777</v>
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
@@ -19317,520 +19466,520 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1778</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1779</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1780</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1781</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1782</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1783</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1784</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1785</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>1786</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1787</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>1788</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>1789</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>1790</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1791</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1792</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1793</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1794</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>1796</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
-        <v>1797</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1798</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1799</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1800</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1801</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1802</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1778</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>1803</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>1804</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>1805</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>1806</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>1807</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>1808</v>
+        <v>1821</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1809</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>1810</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>1811</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>1812</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1813</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>1814</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>1815</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1816</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1817</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>1818</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>1819</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1820</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="7" t="s">
-        <v>1821</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="s">
-        <v>1823</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="s">
-        <v>1824</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>1825</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>1826</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>1827</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>1828</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>1829</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>1830</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>1831</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>1832</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>1821</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>1833</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>1834</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>1835</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="s">
-        <v>1836</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>1837</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="s">
-        <v>1838</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="s">
-        <v>1839</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="s">
-        <v>1840</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="s">
-        <v>1841</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>1842</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="s">
-        <v>1843</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>1844</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>1845</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="s">
-        <v>1846</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="s">
-        <v>1847</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="s">
-        <v>1848</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="s">
-        <v>1849</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="s">
-        <v>1850</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="s">
-        <v>1851</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="7" t="s">
-        <v>1852</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="7" t="s">
-        <v>1853</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="7" t="s">
-        <v>1854</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="7" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="7" t="s">
-        <v>1856</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="7" t="s">
-        <v>1857</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="7" t="s">
-        <v>1858</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="7" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="7" t="s">
-        <v>1860</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="7" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="7" t="s">
-        <v>1862</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="7" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="7" t="s">
-        <v>1863</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="7" t="s">
-        <v>1864</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="7" t="s">
-        <v>1865</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="7" t="s">
-        <v>1866</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="7" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="7" t="s">
-        <v>1867</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="7" t="s">
-        <v>1868</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="7" t="s">
-        <v>1869</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="7" t="s">
-        <v>1870</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="7" t="s">
-        <v>1871</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="7" t="s">
-        <v>1869</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="7" t="s">
-        <v>1872</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="7" t="s">
-        <v>1873</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="7" t="s">
-        <v>1874</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="7" t="s">
-        <v>1875</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>1876</v>
+        <v>1889</v>
       </c>
     </row>
   </sheetData>
@@ -19856,362 +20005,362 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1877</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1878</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1879</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1880</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1881</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1882</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1883</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1884</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1885</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>1886</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1887</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>1888</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1889</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1890</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>1891</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1892</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1893</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1894</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1895</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1896</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1897</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>1898</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1899</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1900</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1901</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1902</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1903</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>1904</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1905</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1906</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1907</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1908</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1909</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1910</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1911</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>1912</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>1913</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>1914</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>1915</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>1916</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>1917</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>1918</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>1919</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>1920</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>1921</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>1922</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>1923</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>1924</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>1925</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>1927</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>1928</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>1929</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>1930</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>1931</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>1932</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>1933</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>1934</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="6" t="s">
-        <v>1935</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>1936</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>1937</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>1938</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
-        <v>1939</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>1940</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>1941</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>1942</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>1943</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>1944</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>1945</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="s">
-        <v>1946</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>1947</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="s">
-        <v>1948</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -20221,97 +20370,97 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>1949</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="s">
-        <v>1950</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>1951</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="s">
-        <v>1952</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>1953</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>1954</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>1955</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>1956</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>1957</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>1958</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>1959</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>1960</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>1962</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="s">
-        <v>1963</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>1964</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>1965</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>1966</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>1967</v>
+        <v>1980</v>
       </c>
     </row>
   </sheetData>
@@ -20336,392 +20485,392 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1968</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1970</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>1971</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1972</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1973</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>1974</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>1975</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>1976</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>1977</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>1978</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>1979</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>1980</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>1981</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>1982</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>1983</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>1984</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>1985</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>1986</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>1987</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>1988</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>1989</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>1990</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>1991</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>1992</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>1993</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>1994</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>1995</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>1996</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>1997</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>1998</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>1999</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>2000</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>2002</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>2003</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>2004</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>2005</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6" t="s">
-        <v>2006</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>2007</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>2009</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>2010</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>2011</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6" t="s">
-        <v>2012</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>2013</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>2014</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>2015</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>2016</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="6" t="s">
-        <v>2017</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>2019</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="s">
-        <v>2020</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="s">
-        <v>2021</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="s">
-        <v>2022</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="s">
-        <v>2023</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>2024</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="s">
-        <v>2025</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="s">
-        <v>2026</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="s">
-        <v>2027</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>2028</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>2029</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>2030</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>2031</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>2032</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="s">
-        <v>2033</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>2034</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="s">
-        <v>2035</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>2036</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="s">
-        <v>2037</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="s">
-        <v>2038</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="s">
-        <v>2039</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="s">
-        <v>2040</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="s">
-        <v>2041</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="s">
-        <v>2042</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>2043</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="s">
-        <v>2044</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="s">
-        <v>2045</v>
+        <v>2058</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="9390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.linux" sheetId="1" r:id="rId1"/>
@@ -19,12 +24,12 @@
     <sheet name="10.eclipse" sheetId="9" r:id="rId10"/>
     <sheet name="APIsdk" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="2111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="2117">
   <si>
     <t>1.if [ "${}" == "" ] 中括号前后需要空格 == 号左右需要空格 加引号 if和中括号之间也要有空格 then前面要有分号</t>
   </si>
@@ -6273,7 +6278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6283,7 +6288,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFB22222"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6293,7 +6298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6303,7 +6308,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFB22222"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6313,7 +6318,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6340,7 +6345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6350,7 +6355,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFB22222"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6360,7 +6365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6436,29 +6441,41 @@
   <si>
     <t>实例</t>
   </si>
+  <si>
+    <t>xjy037</t>
+  </si>
+  <si>
+    <t>类是图纸，类实例化后才能变房子</t>
+  </si>
+  <si>
+    <t>self相当于每间房子门牌号</t>
+  </si>
+  <si>
+    <t>同一个类可以生成不同的对象，对象方法被调用对象会将自身作为第一个参数传给self，接受到self后，python就会知道是哪个对象在调用方法</t>
+  </si>
+  <si>
+    <t>xjy038</t>
+  </si>
+  <si>
+    <t>“Python中函数和方法的区别：函数要手动传self，方法不用传self。如果是一个函数，用类名去调用，如果是一个方法，用对象去调用。”</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFB22222"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6466,13 +6483,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6480,7 +6497,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6488,7 +6505,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6514,155 +6531,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6671,13 +6559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6689,180 +6577,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6870,254 +6590,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -7135,25 +6619,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="45" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="45" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="45" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="45" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7174,73 +6658,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="41" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+  <cellStyles count="4">
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7262,7 +6704,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7300,7 +6742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7338,7 +6780,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7376,7 +6818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7414,7 +6856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7452,7 +6894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7490,7 +6932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7528,7 +6970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7566,7 +7008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7604,7 +7046,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7642,7 +7084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7680,7 +7122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7718,7 +7160,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7749,8 +7191,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>348615</xdr:colOff>
-      <xdr:row>601</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7760,7 +7202,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7802,7 +7244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7833,8 +7275,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>629</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7844,7 +7286,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7886,7 +7328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7916,7 +7358,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>616585</xdr:colOff>
+      <xdr:colOff>597535</xdr:colOff>
       <xdr:row>649</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7928,7 +7370,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7970,7 +7412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8012,7 +7454,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8054,7 +7496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8085,8 +7527,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>520065</xdr:colOff>
-      <xdr:row>742</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>743</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8096,7 +7538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8138,7 +7580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8180,7 +7622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8222,7 +7664,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8264,7 +7706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8281,6 +7723,120 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>830</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58000</xdr:colOff>
+      <xdr:row>861</xdr:row>
+      <xdr:rowOff>77035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="158115000"/>
+          <a:ext cx="6087325" cy="5982535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>862</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572673</xdr:colOff>
+      <xdr:row>868</xdr:row>
+      <xdr:rowOff>160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="164211000"/>
+          <a:ext cx="8402223" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>869</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77387</xdr:colOff>
+      <xdr:row>879</xdr:row>
+      <xdr:rowOff>266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="165544500"/>
+          <a:ext cx="8507012" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8540,21 +8096,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H748"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A700" workbookViewId="0">
       <selection activeCell="M738" sqref="M738"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" style="6"/>
+    <col min="1" max="1" width="9.42578125" style="6"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -10858,17 +10414,17 @@
         <v>450</v>
       </c>
     </row>
-    <row r="596" ht="21" spans="1:1">
+    <row r="596" spans="1:1" ht="17.25">
       <c r="A596" s="17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="597" ht="21" spans="1:1">
+    <row r="597" spans="1:1" ht="17.25">
       <c r="A597" s="17" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="598" ht="21" spans="1:1">
+    <row r="598" spans="1:1" ht="17.25">
       <c r="A598" s="17" t="s">
         <v>453</v>
       </c>
@@ -10908,37 +10464,37 @@
         <v>460</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:8">
       <c r="A609" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:8">
       <c r="A610" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:8">
       <c r="A611" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:8">
       <c r="A612" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:8">
       <c r="A614" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:8">
       <c r="A617" s="6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:8">
       <c r="A618" s="6" t="s">
         <v>467</v>
       </c>
@@ -10951,27 +10507,27 @@
         <v>469</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:8">
       <c r="A620" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:8">
       <c r="A621" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:8">
       <c r="A622" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:8">
       <c r="A623" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:8">
       <c r="A624" s="6" t="s">
         <v>474</v>
       </c>
@@ -11532,22 +11088,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -11658,23 +11212,21 @@
       <c r="A23" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255.708333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11687,7 +11239,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="30">
       <c r="A5" s="2" t="s">
         <v>2079</v>
       </c>
@@ -11876,22 +11428,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="A488" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A488" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" style="6"/>
+    <col min="1" max="1" width="9.42578125" style="6"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -12113,57 +11663,57 @@
         <v>628</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:9">
       <c r="A60" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
         <v>639</v>
       </c>
@@ -14589,24 +14139,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F825"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F882"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A806" workbookViewId="0">
-      <selection activeCell="C828" sqref="C828"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="Q884" sqref="Q884"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" style="6"/>
+    <col min="1" max="1" width="9.42578125" style="6"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -15305,74 +14853,74 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2">
       <c r="B163" s="6" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:2">
       <c r="A164" s="6" t="e">
         <f>--以元祖方式存储</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:2">
       <c r="A166" s="6" t="e">
         <f>--以字典形式存储</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2">
       <c r="B169" s="6" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2">
       <c r="B170" s="6" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:2">
       <c r="A174" s="6" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:2">
       <c r="A175" s="6" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
         <v>1243</v>
       </c>
@@ -15447,132 +14995,132 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:2">
       <c r="A193" s="6" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:2">
       <c r="A194" s="6" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:2">
       <c r="B200" s="6" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="1:2">
       <c r="B201" s="6" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:2">
       <c r="A209" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:2">
       <c r="A214" s="6" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:2">
       <c r="A215" s="6" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="1:2">
       <c r="B216" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:2">
       <c r="A220" s="6" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:2">
       <c r="A221" s="6" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
         <v>1281</v>
       </c>
@@ -16243,72 +15791,72 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:2">
       <c r="A385" s="6" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="1:2">
       <c r="B388" s="6" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:2">
       <c r="A389" s="6" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:2">
       <c r="A393" s="6" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="1:2">
       <c r="B394" s="6" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="1:2">
       <c r="B395" s="6" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
         <v>1425</v>
       </c>
@@ -16548,27 +16096,27 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:6">
       <c r="A563" s="6" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:6">
       <c r="A564" s="6" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="566" spans="6:6">
+    <row r="566" spans="1:6">
       <c r="F566" s="6" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:6">
       <c r="A574" s="6" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:6">
       <c r="A575" s="6" t="s">
         <v>1476</v>
       </c>
@@ -16598,29 +16146,29 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="587" ht="21" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="588" ht="21" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="16" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="589" ht="21" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="16"/>
     </row>
-    <row r="590" ht="21" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="16"/>
     </row>
-    <row r="591" ht="21" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="16"/>
     </row>
-    <row r="592" ht="21" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="16"/>
     </row>
-    <row r="593" ht="21" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="16" t="s">
         <v>1484</v>
       </c>
@@ -16760,12 +16308,12 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="801" spans="1:1">
+    <row r="801" spans="1:4">
       <c r="A801" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="802" spans="1:1">
+    <row r="802" spans="1:4">
       <c r="A802" s="6" t="s">
         <v>1512</v>
       </c>
@@ -16803,30 +16351,58 @@
         <v>1206</v>
       </c>
     </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="6" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="6" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="6" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="6" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="6" t="s">
+        <v>2116</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="212.566666666667" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9.14166666666667" style="13"/>
+    <col min="1" max="1" width="212.5703125" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:1">
+    <row r="1" spans="1:1" ht="30">
       <c r="A1" s="14" t="s">
         <v>1519</v>
       </c>
@@ -16836,7 +16412,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="30">
       <c r="A3" s="12" t="s">
         <v>1521</v>
       </c>
@@ -16849,22 +16425,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A287"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A172" workbookViewId="0">
       <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="255.708333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" style="10" customWidth="1"/>
     <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -17363,27 +16937,27 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="103" ht="52.5" spans="1:1">
+    <row r="103" spans="1:1" ht="63">
       <c r="A103" s="10" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="104" ht="52.5" spans="1:1">
+    <row r="104" spans="1:1" ht="63">
       <c r="A104" s="10" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="105" ht="52.5" spans="1:1">
+    <row r="105" spans="1:1" ht="63">
       <c r="A105" s="10" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="106" ht="52.5" spans="1:1">
+    <row r="106" spans="1:1" ht="42">
       <c r="A106" s="10" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="107" ht="52.5" spans="1:1">
+    <row r="107" spans="1:1" ht="63">
       <c r="A107" s="10" t="s">
         <v>1619</v>
       </c>
@@ -17408,7 +16982,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="112" ht="52.5" spans="1:1">
+    <row r="112" spans="1:1" ht="42">
       <c r="A112" s="10" t="s">
         <v>1624</v>
       </c>
@@ -18063,7 +17637,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" ht="42">
       <c r="A247" s="10" t="s">
         <v>1729</v>
       </c>
@@ -18093,12 +17667,12 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="253" ht="52.5" spans="1:1">
+    <row r="253" spans="1:1" ht="42">
       <c r="A253" s="10" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" ht="42">
       <c r="A254" s="10" t="s">
         <v>1736</v>
       </c>
@@ -18128,7 +17702,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="260" ht="52.5" spans="1:1">
+    <row r="260" spans="1:1" ht="42">
       <c r="A260" s="10" t="s">
         <v>1742</v>
       </c>
@@ -18138,7 +17712,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="262" ht="52.5" spans="1:1">
+    <row r="262" spans="1:1" ht="42">
       <c r="A262" s="10" t="s">
         <v>1744</v>
       </c>
@@ -18148,7 +17722,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="264" ht="52.5" spans="1:1">
+    <row r="264" spans="1:1" ht="42">
       <c r="A264" s="10" t="s">
         <v>1746</v>
       </c>
@@ -18243,7 +17817,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="283" ht="78.75" spans="1:1">
+    <row r="283" spans="1:1" ht="63">
       <c r="A283" s="10" t="s">
         <v>1765</v>
       </c>
@@ -18258,7 +17832,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="286" ht="52.5" spans="1:1">
+    <row r="286" spans="1:1" ht="42">
       <c r="A286" s="10" t="s">
         <v>1768</v>
       </c>
@@ -18269,22 +17843,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A239"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A223" workbookViewId="0">
       <selection activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
@@ -19445,23 +19017,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.14166666666667" style="7"/>
+    <col min="1" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19564,57 +19134,57 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
         <v>1820</v>
       </c>
@@ -19985,20 +19555,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
@@ -20464,21 +20032,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
@@ -20874,8 +20440,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>